--- a/Data/Figure4.xlsx
+++ b/Data/Figure4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unican-my.sharepoint.com/personal/fergarciam_unican_es/Documents/0000-SUBSILIENCE-POSTDOC/1.MIS3-STATE-OF-ART/Supplementary-Information/SCRIPTS-SI5-SI6/Inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unican-my.sharepoint.com/personal/fergarciam_unican_es/Documents/0000-SUBSILIENCE-POSTDOC/1.MIS3-STATE-OF-ART/SUBMISSION/SUPLEMENTARY-INFORMATION/SCRIPTS/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{66E879FA-E7D7-4602-9F3C-E9762C9F347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27D36042-D1F6-4EB7-B98B-398113BA1E4E}"/>
+  <xr:revisionPtr revIDLastSave="330" documentId="13_ncr:1_{66E879FA-E7D7-4602-9F3C-E9762C9F347B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC2F58DE-BCF4-4CB8-88C6-A43AF089EAF9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micro" sheetId="1" r:id="rId1"/>
@@ -446,18 +446,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -472,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -495,11 +489,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1864,8 +1854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C2EB4DD-9D57-4C22-81A7-C4BED4FC0FFA}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.90625" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -1897,13 +1887,13 @@
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E2" s="4">
@@ -1917,13 +1907,13 @@
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="4">
@@ -1937,13 +1927,13 @@
       <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>112</v>
       </c>
       <c r="E4" s="4">
@@ -1957,13 +1947,13 @@
       <c r="A5" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>113</v>
       </c>
       <c r="E5" s="4">
@@ -1977,13 +1967,13 @@
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E6" s="4">
@@ -1997,13 +1987,13 @@
       <c r="A7" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="4">
@@ -2017,13 +2007,13 @@
       <c r="A8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E8" s="4">
@@ -2037,10 +2027,10 @@
       <c r="A9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -2057,10 +2047,10 @@
       <c r="A10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -2077,13 +2067,13 @@
       <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="4">
@@ -2097,13 +2087,13 @@
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E12" s="4">
@@ -2117,13 +2107,13 @@
       <c r="A13" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="4">
@@ -2137,13 +2127,13 @@
       <c r="A14" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="4">
@@ -2157,10 +2147,10 @@
       <c r="A15" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2177,13 +2167,13 @@
       <c r="A16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E16" s="4">
@@ -2197,13 +2187,13 @@
       <c r="A17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="4">
@@ -2217,13 +2207,13 @@
       <c r="A18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E18" s="4">
@@ -2237,13 +2227,13 @@
       <c r="A19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="4">
@@ -2257,13 +2247,13 @@
       <c r="A20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="4">
@@ -2277,13 +2267,13 @@
       <c r="A21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="4">
@@ -2297,10 +2287,10 @@
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2320,7 +2310,7 @@
       <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2337,10 +2327,10 @@
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2357,13 +2347,13 @@
       <c r="A25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E25" s="4">
@@ -2374,7 +2364,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -2386,15 +2376,15 @@
       <c r="D26" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="4">
         <v>0.97000000000000097</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="4">
         <v>-546.80999999999995</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2406,10 +2396,10 @@
       <c r="D27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="4">
         <v>1.1500000000000004</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="4">
         <v>-546.58999999999992</v>
       </c>
     </row>
